--- a/biology/Mycologie/Tricholoma_virgatum/Tricholoma_virgatum.xlsx
+++ b/biology/Mycologie/Tricholoma_virgatum/Tricholoma_virgatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tricholoma virgatum, connu sous le nom de Tricholome vergeté[1], est une espèce de champignons basidiomycètes de la famille des Tricholomataceae et du genre des tricholomes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tricholoma virgatum, connu sous le nom de Tricholome vergeté, est une espèce de champignons basidiomycètes de la famille des Tricholomataceae et du genre des tricholomes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit sous le nom Agaricus virgatus par Elias Magnus Fries en 1818[2], puis transféré dans les tricholomes par Paul Kummer en 1871[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit sous le nom Agaricus virgatus par Elias Magnus Fries en 1818, puis transféré dans les tricholomes par Paul Kummer en 1871.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve Tricholoma orirubens dans les forêts à feuilles caduques ou les forêts de conifères d'Europe et d'Amérique du Nord.
 </t>
@@ -573,9 +589,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le champignon n'est pas comestible ; il a un goût vaguement poivré et une odeur qui rappelle le moisi[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le champignon n'est pas comestible ; il a un goût vaguement poivré et une odeur qui rappelle le moisi.
 </t>
         </is>
       </c>
